--- a/meta.xlsx
+++ b/meta.xlsx
@@ -943,10 +943,10 @@
   <dimension ref="A1:AO896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="V2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AC3" sqref="AC3"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/meta.xlsx
+++ b/meta.xlsx
@@ -22,11 +22,12 @@
   <customWorkbookViews>
     <customWorkbookView name="Filter 1" guid="{1D1C3006-77CD-4341-91AA-AC39A6AA1F32}" maximized="1" windowWidth="0" windowHeight="0" activeSheetId="0"/>
   </customWorkbookViews>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="82">
   <si>
     <t>Gill</t>
   </si>
@@ -230,9 +231,6 @@
     <t>https://github.com/barbarabrooks/ClearFlo</t>
   </si>
   <si>
-    <t>height of instrument above ground</t>
-  </si>
-  <si>
     <t>Clean Air for London (ClearFlo)</t>
   </si>
   <si>
@@ -254,9 +252,6 @@
     <t>51.5203N -0.2133E</t>
   </si>
   <si>
-    <t>Sonic mounted at 3m with repest to platfor_altitude. Mounted on a lattice mast and oreinted to magnetic north.</t>
-  </si>
-  <si>
     <t>Time series of 1 minute averages of horizontal winds.</t>
   </si>
   <si>
@@ -264,6 +259,21 @@
   </si>
   <si>
     <t>north-kensington</t>
+  </si>
+  <si>
+    <t>5 minute</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Data taken in Sprng and Summer 2012. Sept 2012 Processed for distribution internal porject partner use. Nov 2020 Processed for archiving </t>
+  </si>
+  <si>
+    <t>AWS mounted at 3m with respect to platform_altitude. Mounted on a lattice mast and oreinted to magnetic north.</t>
+  </si>
+  <si>
+    <t>Sonic mounted at 3m with resect to platform_altitude. Mounted on a lattice mast and oreinted to magnetic north.</t>
+  </si>
+  <si>
+    <t>Time series of 5 minute averages of surface meteorology.</t>
   </si>
 </sst>
 </file>
@@ -943,10 +953,10 @@
   <dimension ref="A1:AO896"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="Z2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomRight" activeCell="AF3" sqref="AF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1156,16 +1166,16 @@
         <v>1</v>
       </c>
       <c r="W2" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="X2" s="58" t="s">
+      <c r="Y2" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="Y2" s="54" t="s">
+      <c r="Z2" s="51" t="s">
         <v>70</v>
-      </c>
-      <c r="Z2" s="51" t="s">
-        <v>71</v>
       </c>
       <c r="AA2" s="42" t="s">
         <v>43</v>
@@ -1174,7 +1184,7 @@
         <v>44</v>
       </c>
       <c r="AC2" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD2" s="46" t="s">
         <v>46</v>
@@ -1183,28 +1193,28 @@
         <v>48</v>
       </c>
       <c r="AF2" s="48" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="AG2" s="46" t="s">
         <v>47</v>
       </c>
       <c r="AJ2" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK2" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL2" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM2" s="48" t="s">
         <v>52</v>
       </c>
       <c r="AN2" s="49" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="AO2" s="49" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:41" s="46" customFormat="1" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1259,6 +1269,12 @@
       <c r="Q3" s="53" t="s">
         <v>49</v>
       </c>
+      <c r="R3" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="S3" s="46" t="s">
+        <v>77</v>
+      </c>
       <c r="T3" s="46" t="s">
         <v>58</v>
       </c>
@@ -1266,16 +1282,16 @@
         <v>1</v>
       </c>
       <c r="W3" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="X3" s="58" t="s">
         <v>68</v>
       </c>
-      <c r="X3" s="58" t="s">
+      <c r="Y3" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="Y3" s="54" t="s">
+      <c r="Z3" s="51" t="s">
         <v>70</v>
-      </c>
-      <c r="Z3" s="51" t="s">
-        <v>71</v>
       </c>
       <c r="AA3" s="42" t="s">
         <v>43</v>
@@ -1284,7 +1300,7 @@
         <v>44</v>
       </c>
       <c r="AC3" s="46" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="AD3" s="46" t="s">
         <v>46</v>
@@ -1292,25 +1308,29 @@
       <c r="AE3" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="AF3" s="48"/>
+      <c r="AF3" s="48" t="s">
+        <v>81</v>
+      </c>
       <c r="AG3" s="46" t="s">
         <v>47</v>
       </c>
       <c r="AJ3" s="46" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="AK3" s="46" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="AL3" s="46" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AM3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="AN3" s="49"/>
-      <c r="AO3" s="46" t="s">
-        <v>67</v>
+      <c r="AN3" s="49" t="s">
+        <v>78</v>
+      </c>
+      <c r="AO3" s="49" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="4" spans="1:41" ht="12.75" x14ac:dyDescent="0.2">
